--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +991,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1038,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1198,10 +1222,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1245,28 +1269,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1291,28 +1315,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1400,10 +1424,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1447,28 +1471,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1493,28 +1517,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1631,10 +1655,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1678,28 +1702,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1724,28 +1748,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1862,10 +1886,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1909,28 +1933,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1955,28 +1979,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2064,10 +2088,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2111,28 +2135,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2157,28 +2181,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2295,10 +2319,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2342,28 +2366,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2388,28 +2412,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2526,10 +2550,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2573,28 +2597,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="2">
+      <c r="C85" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2619,28 +2643,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2728,10 +2752,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2775,28 +2799,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2821,28 +2845,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2930,10 +2954,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2977,28 +3001,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3023,28 +3047,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3161,10 +3185,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3208,28 +3232,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3254,28 +3278,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3363,10 +3387,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3410,28 +3434,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3456,28 +3480,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3594,10 +3618,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3641,28 +3665,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3687,28 +3711,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3796,10 +3820,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3843,28 +3867,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3889,28 +3913,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4056,10 +4080,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4103,28 +4127,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4149,28 +4173,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4287,10 +4311,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4334,28 +4358,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4380,28 +4404,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4489,10 +4513,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4536,28 +4560,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4582,28 +4606,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4720,10 +4744,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4767,28 +4791,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4813,28 +4837,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4980,10 +5004,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5027,28 +5051,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5073,28 +5097,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5298,10 +5322,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5345,28 +5369,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5391,28 +5415,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5529,10 +5553,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5576,28 +5600,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5622,28 +5646,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5789,10 +5813,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5836,28 +5860,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5882,28 +5906,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5991,10 +6015,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6038,28 +6062,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6084,28 +6108,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6251,10 +6275,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6298,28 +6322,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6344,28 +6368,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6482,10 +6506,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6529,28 +6553,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6575,28 +6599,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6742,10 +6766,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6789,28 +6813,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6835,28 +6859,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6944,10 +6968,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6991,28 +7015,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7037,28 +7061,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7262,10 +7286,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7309,28 +7333,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7355,28 +7379,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7464,10 +7488,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7511,28 +7535,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7557,28 +7581,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7724,10 +7748,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7771,28 +7795,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="2">
+      <c r="A265" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="2">
+      <c r="C265" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7817,28 +7841,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="2">
+      <c r="C267" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="2">
+      <c r="D267" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="2">
+      <c r="I267" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7955,10 +7979,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
